--- a/models/calculation engines/cbix2/outputs/default/frieght_calcs_to_actual_nominated_port/exporting_port_details-loading_rates.xlsx
+++ b/models/calculation engines/cbix2/outputs/default/frieght_calcs_to_actual_nominated_port/exporting_port_details-loading_rates.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,71 +588,71 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="B7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="C7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="D7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="E7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="F7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G7" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="B8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="C8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="D8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="E8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="F8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G8" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="B9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="C9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="D9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="E9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="F9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="G9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="10">
@@ -703,48 +703,48 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="B12" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="C12" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="D12" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="E12" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="F12" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="G12" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>15000</v>
+        <v>80000</v>
       </c>
       <c r="B13" t="n">
-        <v>15000</v>
+        <v>80000</v>
       </c>
       <c r="C13" t="n">
-        <v>15000</v>
+        <v>80000</v>
       </c>
       <c r="D13" t="n">
-        <v>15000</v>
+        <v>80000</v>
       </c>
       <c r="E13" t="n">
-        <v>15000</v>
+        <v>80000</v>
       </c>
       <c r="F13" t="n">
-        <v>15000</v>
+        <v>80000</v>
       </c>
       <c r="G13" t="n">
-        <v>15000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="14">
@@ -1140,59 +1140,59 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B31" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C31" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D31" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E31" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F31" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G31" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B32" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C32" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D32" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E32" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F32" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G32" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="B33" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="C33" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="D33" t="n">
         <v>30000</v>
@@ -1209,1060 +1209,1060 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B34" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C34" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D34" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E34" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F34" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G34" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B35" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C35" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D35" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E35" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F35" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G35" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B36" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C36" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D36" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E36" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F36" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G36" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B37" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C37" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D37" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E37" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F37" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G37" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B38" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C38" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D38" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E38" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F38" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G38" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B39" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C39" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D39" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E39" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F39" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G39" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B40" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C40" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D40" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E40" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F40" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G40" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B41" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C41" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D41" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E41" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F41" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G41" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B42" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C42" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D42" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E42" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F42" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G42" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B43" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C43" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D43" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E43" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F43" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G43" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B44" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C44" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D44" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E44" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F44" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G44" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B45" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C45" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D45" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E45" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F45" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G45" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B46" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C46" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D46" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E46" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F46" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G46" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B47" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C47" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D47" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E47" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F47" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G47" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B48" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C48" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D48" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E48" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F48" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G48" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B49" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C49" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D49" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E49" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F49" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G49" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B50" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C50" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D50" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E50" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F50" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G50" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B51" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C51" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D51" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E51" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F51" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G51" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B52" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C52" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D52" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E52" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F52" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G52" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B53" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C53" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D53" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E53" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F53" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G53" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B54" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C54" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D54" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E54" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F54" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G54" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B55" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C55" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D55" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E55" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F55" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G55" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B56" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C56" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D56" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E56" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F56" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G56" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B57" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C57" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D57" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E57" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F57" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G57" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B58" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C58" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D58" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E58" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F58" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G58" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B59" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C59" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D59" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E59" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F59" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G59" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B60" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C60" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D60" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E60" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F60" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G60" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B61" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C61" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D61" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E61" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F61" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G61" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B62" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C62" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D62" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E62" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F62" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G62" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B63" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C63" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D63" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E63" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F63" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G63" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B64" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C64" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D64" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E64" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F64" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G64" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B65" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C65" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D65" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E65" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F65" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G65" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B66" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C66" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D66" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E66" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F66" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G66" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B67" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C67" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D67" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E67" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F67" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G67" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B68" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C68" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D68" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E68" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F68" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G68" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B69" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C69" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D69" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E69" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F69" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G69" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B70" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C70" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D70" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E70" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F70" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G70" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B71" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C71" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D71" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E71" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F71" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G71" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B72" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C72" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D72" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E72" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F72" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G72" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B73" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C73" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D73" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E73" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F73" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G73" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B74" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C74" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D74" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E74" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F74" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G74" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B75" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C75" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D75" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E75" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F75" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G75" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B76" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C76" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D76" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E76" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F76" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G76" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B77" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C77" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D77" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E77" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F77" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G77" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B78" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C78" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D78" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E78" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F78" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G78" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B79" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C79" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D79" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E79" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F79" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G79" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="80">
@@ -2290,117 +2290,117 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B81" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C81" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D81" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E81" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F81" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G81" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B82" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C82" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D82" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E82" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F82" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G82" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B83" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C83" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D83" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E83" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F83" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G83" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B84" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="C84" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="D84" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="E84" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="F84" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G84" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="B85" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="C85" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="D85" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="E85" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="F85" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="G85" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="86">
@@ -2428,25 +2428,25 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B87" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C87" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D87" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E87" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F87" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G87" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="88">
@@ -2474,140 +2474,140 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B89" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C89" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D89" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E89" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F89" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G89" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B90" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C90" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D90" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E90" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F90" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G90" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B91" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C91" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D91" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E91" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F91" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G91" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B92" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C92" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D92" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E92" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F92" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G92" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B93" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C93" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D93" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E93" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F93" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G93" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B94" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C94" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="D94" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E94" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="F94" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G94" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="95">
@@ -2631,6 +2631,29 @@
       </c>
       <c r="G95" t="n">
         <v>30000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>40000</v>
+      </c>
+      <c r="B96" t="n">
+        <v>40000</v>
+      </c>
+      <c r="C96" t="n">
+        <v>40000</v>
+      </c>
+      <c r="D96" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E96" t="n">
+        <v>40000</v>
+      </c>
+      <c r="F96" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G96" t="n">
+        <v>40000</v>
       </c>
     </row>
   </sheetData>
